--- a/data/trans_orig/P36BPD09_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD09_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>50602</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36872</v>
+        <v>36158</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68886</v>
+        <v>66853</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1018122729902471</v>
+        <v>0.1018122729902472</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07418781759379262</v>
+        <v>0.07275001798659812</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1385997525278413</v>
+        <v>0.1345098883336802</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -762,19 +762,19 @@
         <v>48300</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37537</v>
+        <v>37055</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61205</v>
+        <v>62124</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0776134609763969</v>
+        <v>0.07761346097639688</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06031836859348138</v>
+        <v>0.05954395226528046</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09834995322826848</v>
+        <v>0.09982631421788045</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>105</v>
@@ -783,19 +783,19 @@
         <v>98903</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>80586</v>
+        <v>81371</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>120160</v>
+        <v>121097</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08835835697064788</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07199432080307315</v>
+        <v>0.07269594931553174</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1073492755694891</v>
+        <v>0.1081867937195385</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>309379</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>285506</v>
+        <v>284562</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>332358</v>
+        <v>333426</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6224774436510384</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.574443270944503</v>
+        <v>0.572543760899054</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6687117818243182</v>
+        <v>0.6708593172984919</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>502</v>
@@ -833,19 +833,19 @@
         <v>372313</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>352451</v>
+        <v>350872</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>395516</v>
+        <v>395006</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5982655008911506</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5663485623769955</v>
+        <v>0.5638121921185653</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6355506137868724</v>
+        <v>0.6347309921366102</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>782</v>
@@ -854,19 +854,19 @@
         <v>681693</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>646071</v>
+        <v>647380</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>712547</v>
+        <v>712649</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6090162272749439</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5771926576043432</v>
+        <v>0.578361667671391</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6365816107936639</v>
+        <v>0.6366724049932948</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>137032</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>115692</v>
+        <v>118238</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>158867</v>
+        <v>161527</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2757102833587144</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2327738845710357</v>
+        <v>0.2378980884199001</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3196426864500475</v>
+        <v>0.3249960442725852</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>295</v>
@@ -904,19 +904,19 @@
         <v>201707</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>179619</v>
+        <v>179561</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>221365</v>
+        <v>220785</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3241210381324525</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2886268062833363</v>
+        <v>0.2885346803952595</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3557088405358883</v>
+        <v>0.3547767619195261</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>425</v>
@@ -925,19 +925,19 @@
         <v>338739</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>309854</v>
+        <v>307369</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>371934</v>
+        <v>369167</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3026254157544083</v>
+        <v>0.3026254157544082</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2768197499432963</v>
+        <v>0.2746003041631069</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3322811935847307</v>
+        <v>0.329809345297663</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>87653</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>67892</v>
+        <v>68857</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>115203</v>
+        <v>111856</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09135571180074763</v>
+        <v>0.09135571180074764</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07076023361557998</v>
+        <v>0.07176589608459641</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1200695249969403</v>
+        <v>0.1165812838751655</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>115</v>
@@ -1050,19 +1050,19 @@
         <v>91343</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>74426</v>
+        <v>74369</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>110467</v>
+        <v>111261</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.08192612299507847</v>
+        <v>0.08192612299507845</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06675312411486392</v>
+        <v>0.0667019418069487</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09907902532949872</v>
+        <v>0.09979093837005637</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>187</v>
@@ -1071,19 +1071,19 @@
         <v>178996</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>153271</v>
+        <v>155843</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>209574</v>
+        <v>211127</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.08628755787390531</v>
+        <v>0.08628755787390532</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07388622424128501</v>
+        <v>0.07512609888329171</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1010282719370461</v>
+        <v>0.1017769526299716</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>635727</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>596514</v>
+        <v>603360</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>669626</v>
+        <v>672924</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6625804624975337</v>
+        <v>0.6625804624975338</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6217117384613287</v>
+        <v>0.6288464517045687</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6979116153273481</v>
+        <v>0.7013485432812652</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1047</v>
@@ -1121,19 +1121,19 @@
         <v>741276</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>712146</v>
+        <v>712044</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>765567</v>
+        <v>767665</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.6648564638159065</v>
+        <v>0.6648564638159064</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6387289325627908</v>
+        <v>0.6386380262917513</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.686642714343064</v>
+        <v>0.6885249855791183</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1655</v>
@@ -1142,19 +1142,19 @@
         <v>1377003</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1335086</v>
+        <v>1332544</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1418105</v>
+        <v>1420961</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.6638037528505842</v>
+        <v>0.6638037528505843</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.643597190524145</v>
+        <v>0.6423715120597493</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6836177243873104</v>
+        <v>0.6849944011163419</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>236091</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>208217</v>
+        <v>206494</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>268958</v>
+        <v>264971</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2460638257017188</v>
+        <v>0.2460638257017187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2170119940922856</v>
+        <v>0.2152162827290119</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2803192359594261</v>
+        <v>0.2761632639708004</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>443</v>
@@ -1192,19 +1192,19 @@
         <v>282323</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>259137</v>
+        <v>258457</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>308569</v>
+        <v>306485</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2532174131890151</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2324222787547225</v>
+        <v>0.2318119873089602</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.276757505758233</v>
+        <v>0.2748889595879913</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>672</v>
@@ -1213,19 +1213,19 @@
         <v>518414</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>479199</v>
+        <v>479268</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>557794</v>
+        <v>553845</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2499086892755104</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2310047392461655</v>
+        <v>0.2310381272165309</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2688922762684058</v>
+        <v>0.2669886300853863</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>53276</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>40461</v>
+        <v>40002</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>73347</v>
+        <v>71624</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05090943508001103</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03866364958442717</v>
+        <v>0.03822516603655977</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07008950028950371</v>
+        <v>0.06844284351130334</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>89</v>
@@ -1338,19 +1338,19 @@
         <v>70086</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>55406</v>
+        <v>55083</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>86814</v>
+        <v>86968</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.06697361870128767</v>
+        <v>0.06697361870128765</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05294588988021418</v>
+        <v>0.05263660725890068</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08295902672360463</v>
+        <v>0.08310598466090545</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>136</v>
@@ -1359,19 +1359,19 @@
         <v>123362</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>102244</v>
+        <v>104105</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>146566</v>
+        <v>147337</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05894149763820002</v>
+        <v>0.05894149763820003</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04885178311743154</v>
+        <v>0.04974100987761849</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07002855192365369</v>
+        <v>0.07039674854463421</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>747228</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>713502</v>
+        <v>714020</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>778941</v>
+        <v>777021</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7140405570615003</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6818118014068133</v>
+        <v>0.6823073578012243</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7443442650318464</v>
+        <v>0.7425102312083657</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1064</v>
@@ -1409,19 +1409,19 @@
         <v>727641</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>701481</v>
+        <v>698350</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>755508</v>
+        <v>753977</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6953277500926095</v>
+        <v>0.6953277500926094</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6703297291228432</v>
+        <v>0.6673375929585199</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7219571955234768</v>
+        <v>0.720494490820937</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1812</v>
@@ -1430,19 +1430,19 @@
         <v>1474869</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1433525</v>
+        <v>1437670</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1517257</v>
+        <v>1525567</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7046841876525763</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.684929978138113</v>
+        <v>0.6869104989156758</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7249368906725112</v>
+        <v>0.7289070038421646</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>245975</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>217804</v>
+        <v>217759</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>277044</v>
+        <v>280243</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2350500078584888</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2081306458519234</v>
+        <v>0.2080872099815846</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.264739664002534</v>
+        <v>0.2677962158823018</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>361</v>
@@ -1480,19 +1480,19 @@
         <v>248745</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>225986</v>
+        <v>227711</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>274094</v>
+        <v>277746</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2376986312061031</v>
+        <v>0.237698631206103</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2159502526920124</v>
+        <v>0.2175987600287392</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2619216398047757</v>
+        <v>0.2654121233177344</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>595</v>
@@ -1501,19 +1501,19 @@
         <v>494720</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>456851</v>
+        <v>450082</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>534053</v>
+        <v>530307</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2363743147092235</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2182808920823126</v>
+        <v>0.2150464115253475</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2551674144772623</v>
+        <v>0.2533777365101252</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>72883</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56488</v>
+        <v>55832</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>96003</v>
+        <v>94985</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07478433048128309</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05796183661429674</v>
+        <v>0.05728882366042635</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09850822269688782</v>
+        <v>0.09746299452000717</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>89</v>
@@ -1626,19 +1626,19 @@
         <v>68691</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55504</v>
+        <v>54875</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>84890</v>
+        <v>84853</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07585015618796175</v>
+        <v>0.07585015618796173</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06128870911448592</v>
+        <v>0.0605940318490531</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09373742932813629</v>
+        <v>0.09369654789535697</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>152</v>
@@ -1647,19 +1647,19 @@
         <v>141574</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>119466</v>
+        <v>120158</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>166552</v>
+        <v>167899</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07529769811800209</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0635397065618558</v>
+        <v>0.06390781480281313</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08858297417823877</v>
+        <v>0.08929900812100933</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>574511</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>540057</v>
+        <v>539720</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>607760</v>
+        <v>607364</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5895017617468546</v>
+        <v>0.5895017617468545</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5541484684454517</v>
+        <v>0.553802724205655</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6236176295797152</v>
+        <v>0.6232114178251038</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>819</v>
@@ -1697,19 +1697,19 @@
         <v>553134</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>526429</v>
+        <v>527663</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>579263</v>
+        <v>579770</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6107840592640763</v>
+        <v>0.6107840592640764</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5812962580535784</v>
+        <v>0.5826581693822092</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6396368446713855</v>
+        <v>0.6401963488527562</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1380</v>
@@ -1718,19 +1718,19 @@
         <v>1127645</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1086054</v>
+        <v>1081655</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1170372</v>
+        <v>1171923</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5997526336407344</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5776318159420138</v>
+        <v>0.5752921950844092</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6224773027571421</v>
+        <v>0.6233021818641017</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>327177</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>295794</v>
+        <v>298188</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>359219</v>
+        <v>362514</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3357139077718624</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3035121643406313</v>
+        <v>0.3059683690751748</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3685922156016508</v>
+        <v>0.371973005873735</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>409</v>
@@ -1768,19 +1768,19 @@
         <v>283788</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>259093</v>
+        <v>259565</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>308181</v>
+        <v>310069</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3133657845479619</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2860964701159074</v>
+        <v>0.2866175230756899</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3403014857830091</v>
+        <v>0.3423861404550046</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>730</v>
@@ -1789,19 +1789,19 @@
         <v>610965</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>568220</v>
+        <v>571368</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>647945</v>
+        <v>655878</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3249496682412636</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3022152878571719</v>
+        <v>0.3038895981143746</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3446181066107907</v>
+        <v>0.3488371387532166</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>264414</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>229986</v>
+        <v>228403</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>304834</v>
+        <v>303386</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07603476324471817</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06613481777666902</v>
+        <v>0.06567953517416929</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08765805555406293</v>
+        <v>0.08724154985452907</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>355</v>
@@ -1914,19 +1914,19 @@
         <v>278420</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>251541</v>
+        <v>251357</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>311289</v>
+        <v>310144</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.07546598202801419</v>
+        <v>0.0754659820280142</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06818026684978414</v>
+        <v>0.06813053840361567</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08437505974397499</v>
+        <v>0.08406479728114921</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>580</v>
@@ -1935,19 +1935,19 @@
         <v>542834</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>496609</v>
+        <v>498346</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>594643</v>
+        <v>592032</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07574196763610598</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06929218286591893</v>
+        <v>0.06953457905746283</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08297087936480484</v>
+        <v>0.08260655730202324</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>2266847</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2202711</v>
+        <v>2206329</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2328610</v>
+        <v>2329044</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6518544131660278</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.633411467350907</v>
+        <v>0.6344519773679869</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6696151439066381</v>
+        <v>0.6697398716829822</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3432</v>
@@ -1985,19 +1985,19 @@
         <v>2394365</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2338676</v>
+        <v>2339547</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2441273</v>
+        <v>2442141</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6489939582991663</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.633899592957487</v>
+        <v>0.634135758433086</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6617084308261131</v>
+        <v>0.6619437403496612</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5629</v>
@@ -2006,19 +2006,19 @@
         <v>4661211</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4573093</v>
+        <v>4576835</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4733825</v>
+        <v>4738036</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.650381916186427</v>
+        <v>0.6503819161864268</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6380867201890965</v>
+        <v>0.6386089089100319</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6605137868704272</v>
+        <v>0.6611013400529016</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>946275</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>889355</v>
+        <v>885813</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1003725</v>
+        <v>1003091</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.272110823589254</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.255742966874498</v>
+        <v>0.2547243250903558</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2886312309997952</v>
+        <v>0.2884488085275598</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1508</v>
@@ -2056,19 +2056,19 @@
         <v>1016563</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>971955</v>
+        <v>969415</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1068515</v>
+        <v>1063573</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2755400596728195</v>
+        <v>0.2755400596728194</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2634490677198215</v>
+        <v>0.2627606129359055</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2896216989528033</v>
+        <v>0.2882821913540186</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2422</v>
@@ -2077,19 +2077,19 @@
         <v>1962838</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1892673</v>
+        <v>1891830</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2048408</v>
+        <v>2040756</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2738761161774673</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2640859943451945</v>
+        <v>0.2639682440649859</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2858157282248613</v>
+        <v>0.2847481199160828</v>
       </c>
     </row>
     <row r="23">
